--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14DDBA1A-66A4-DC4B-AF4F-AE3CF66FC3D6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52757F0F-4697-D84D-A8BA-E25AD7CC02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="500" windowWidth="30820" windowHeight="19320" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>

--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52757F0F-4697-D84D-A8BA-E25AD7CC02A5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FB6B5-AA20-6D46-8D52-6A147CA34B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7480" yWindow="500" windowWidth="30820" windowHeight="19320" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>
@@ -141,12 +141,6 @@
     <t xml:space="preserve">All likelihoods </t>
   </si>
   <si>
-    <t>Weights by year: 
-Before 2010, 0.25x weight
-2010-2017, 1x weight
-2018 and after, 4x weight</t>
-  </si>
-  <si>
     <t>Total mortality</t>
   </si>
   <si>
@@ -219,21 +213,6 @@
   </si>
   <si>
     <t>UN World population prospects</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total: 1/1000‡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>Weight by age: 80+ age = 0.5x weight</t>
-    </r>
   </si>
   <si>
     <r>
@@ -292,12 +271,72 @@
       <t>age*sex in; didn't have it before</t>
     </r>
   </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weights by year: 
+</t>
+    </r>
+    <r>
+      <rPr>
+        <strike/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Before 2010, 0.25x weight</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>2/21 - removed 0.25 weight and set back to 1</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">
+2010-2017, 1x weight
+2018 and after, 4x weight</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Total: 1/1000‡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Weight by age: 80+ age = 0.25x weight</t>
+    </r>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -335,6 +374,12 @@
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
     </font>
+    <font>
+      <strike/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Aptos Narrow (Body)"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -356,7 +401,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -364,11 +409,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
@@ -711,7 +752,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -744,10 +785,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -759,8 +800,8 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="68" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+      <c r="A3" s="3" t="s">
         <v>32</v>
       </c>
       <c r="B3" s="2"/>
@@ -768,8 +809,8 @@
       <c r="D3" s="2"/>
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
-      <c r="G3" s="4" t="s">
-        <v>33</v>
+      <c r="G3" s="3" t="s">
+        <v>54</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -781,13 +822,13 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D4" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
@@ -807,18 +848,18 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>45</v>
       </c>
-      <c r="D5" s="6" t="s">
-        <v>46</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G5" s="5">
+      <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
@@ -833,13 +874,13 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D6" s="6" t="s">
-        <v>55</v>
+        <v>44</v>
+      </c>
+      <c r="D6" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
@@ -859,19 +900,19 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D7" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D7" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G7" s="5" t="s">
-        <v>40</v>
+      <c r="G7" s="1" t="s">
+        <v>39</v>
       </c>
       <c r="H7" s="1" t="s">
         <v>26</v>
@@ -885,19 +926,19 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D8" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G8" s="5" t="s">
-        <v>41</v>
+      <c r="G8" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H8" s="1" t="s">
         <v>26</v>
@@ -911,19 +952,19 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="D9" s="6" t="s">
+        <v>44</v>
+      </c>
+      <c r="D9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>47</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>48</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="G9" s="5" t="s">
-        <v>41</v>
+      <c r="G9" s="1" t="s">
+        <v>40</v>
       </c>
       <c r="H9" s="1" t="s">
         <v>26</v>
@@ -937,13 +978,13 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D10" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
@@ -957,68 +998,68 @@
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>35</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>52</v>
-      </c>
-      <c r="D11" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="D11" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>50</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>51</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A13" s="3" t="s">
+      <c r="A13" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A14" s="3" t="s">
+      <c r="A14" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A15" s="3" t="s">
-        <v>42</v>
+      <c r="A15" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A16" s="3" t="s">
+      <c r="A16" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A18" s="3" t="s">
+      <c r="A18" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A19" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A19" s="3" t="s">
+    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A21" s="3" t="s">
+    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
         <v>38</v>
-      </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.2">
-      <c r="A22" s="3" t="s">
-        <v>39</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FB6B5-AA20-6D46-8D52-6A147CA34B63}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF80977-8D2A-5E45-ADA8-AAEE56E03D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7480" yWindow="500" windowWidth="30820" windowHeight="19320" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
+    <workbookView xWindow="4240" yWindow="500" windowWidth="30820" windowHeight="19320" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="likelihoods" sheetId="1" r:id="rId1"/>
@@ -107,9 +107,6 @@
     <t>Estimated standard deviation as square root of observed data</t>
   </si>
   <si>
-    <t xml:space="preserve">1/256† </t>
-  </si>
-  <si>
     <t>1/200000‡</t>
   </si>
   <si>
@@ -215,23 +212,11 @@
     <t>UN World population prospects</t>
   </si>
   <si>
-    <r>
-      <t xml:space="preserve">Years available </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>- added beyond 2020 for all of these</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">- Total
-- Age: 0-14, 10-19, 15-24, 15-49, 50+
+    <t>Years available</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Weights by year: 
 </t>
     </r>
     <r>
@@ -240,69 +225,7 @@
         <color theme="1"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>- Age*sex: 15+ male, 15+ female</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t xml:space="preserve"> - added</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve"> </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>age*sex in; didn't have it before</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Weights by year: 
-</t>
-    </r>
-    <r>
-      <rPr>
-        <strike/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>Before 2010, 0.25x weight</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="12"/>
-        <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>2/21 - removed 0.25 weight and set back to 1</t>
+      <t>Before 2000, 0.25x weight</t>
     </r>
     <r>
       <rPr>
@@ -313,12 +236,28 @@
       </rPr>
       <t xml:space="preserve">
 2010-2017, 1x weight
-2018 and after, 4x weight</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">Total: 1/1000‡
+2018 and after, 4x weight
+France: all pre-1995 points removed</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">- Total
+- Age: 0-14, 10-19, 15-24, 15-49, 50+
+</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>- Age*sex: 15+ male, 15+ female</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">1/256† 
 </t>
     </r>
     <r>
@@ -328,7 +267,41 @@
         <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>Weight by age: 80+ age = 0.25x weight</t>
+      <t>1/1M</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Total: 1/</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>200k</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="12"/>
+        <color theme="1"/>
+        <rFont val="Aptos Narrow"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">‡
+</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="12"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Aptos Narrow (Body)"/>
+      </rPr>
+      <t>Weight by age: 80+ age = 0.1x weight</t>
     </r>
   </si>
 </sst>
@@ -375,10 +348,11 @@
       <name val="Aptos Narrow (Body)"/>
     </font>
     <font>
-      <strike/>
+      <b/>
       <sz val="12"/>
-      <color theme="1"/>
-      <name val="Aptos Narrow (Body)"/>
+      <color rgb="FFFF0000"/>
+      <name val="Aptos Narrow"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -401,7 +375,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -413,6 +387,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -785,10 +762,10 @@
         <v>4</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="E2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F2" s="2" t="s">
         <v>5</v>
@@ -800,9 +777,9 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:8" ht="102" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -810,7 +787,7 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="H3" s="2"/>
     </row>
@@ -822,22 +799,22 @@
         <v>7</v>
       </c>
       <c r="C4" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D4" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D4" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E4" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="1">
-        <v>2</v>
+      <c r="G4" s="5">
+        <v>1</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -848,13 +825,13 @@
         <v>10</v>
       </c>
       <c r="C5" s="1" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="4" t="s">
-        <v>45</v>
-      </c>
       <c r="E5" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F5" s="1" t="s">
         <v>11</v>
@@ -863,10 +840,10 @@
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="68" x14ac:dyDescent="0.2">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>12</v>
       </c>
@@ -874,22 +851,22 @@
         <v>13</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D6" s="4" t="s">
         <v>53</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G6" s="1" t="s">
-        <v>23</v>
+        <v>54</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
@@ -900,22 +877,22 @@
         <v>15</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E7" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F7" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -926,22 +903,22 @@
         <v>17</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E8" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F8" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
@@ -952,22 +929,22 @@
         <v>19</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>46</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>47</v>
       </c>
       <c r="F9" s="1" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
@@ -978,39 +955,39 @@
         <v>21</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D10" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E10" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F10" s="1" t="s">
         <v>22</v>
       </c>
       <c r="G10" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="H10" s="1" t="s">
         <v>24</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>25</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>34</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>49</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>50</v>
       </c>
       <c r="F11" s="1" t="s">
         <v>22</v>
@@ -1019,47 +996,47 @@
         <v>55</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1EF80977-8D2A-5E45-ADA8-AAEE56E03D72}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1ED5C-6B8A-964A-B029-C00C3377ADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4240" yWindow="500" windowWidth="30820" windowHeight="19320" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
+    <workbookView xWindow="7300" yWindow="1140" windowWidth="27760" windowHeight="18680" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>
   <sheets>
     <sheet name="likelihoods" sheetId="1" r:id="rId1"/>
@@ -256,52 +256,20 @@
     </r>
   </si>
   <si>
+    <t xml:space="preserve">1/256† </t>
+  </si>
+  <si>
     <r>
-      <t xml:space="preserve">1/256† 
+      <t xml:space="preserve">Total: 1/1000‡
 </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>1/1M</t>
-    </r>
-  </si>
-  <si>
-    <r>
-      <t>Total: 1/</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="Aptos Narrow (Body)"/>
-      </rPr>
-      <t>200k</t>
     </r>
     <r>
       <rPr>
         <sz val="12"/>
         <color theme="1"/>
-        <rFont val="Aptos Narrow"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">‡
-</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="12"/>
-        <color rgb="FFFF0000"/>
         <rFont val="Aptos Narrow (Body)"/>
       </rPr>
-      <t>Weight by age: 80+ age = 0.1x weight</t>
+      <t>Weight by age: 80+ age = 0.25x weight</t>
     </r>
   </si>
 </sst>
@@ -309,7 +277,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -337,22 +305,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
       <sz val="12"/>
       <color theme="1"/>
       <name val="Aptos Narrow (Body)"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color rgb="FFFF0000"/>
-      <name val="Aptos Narrow"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -375,7 +330,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -387,9 +342,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -729,7 +681,7 @@
   <dimension ref="A1:H22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -810,8 +762,8 @@
       <c r="F4" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="G4" s="5">
-        <v>1</v>
+      <c r="G4" s="1">
+        <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
         <v>27</v>

--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3DA1ED5C-6B8A-964A-B029-C00C3377ADA0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231AD9CE-6536-DF45-9390-4FDD231B59BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="1140" windowWidth="27760" windowHeight="18680" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>
@@ -50,9 +50,6 @@
     <t>Definition</t>
   </si>
   <si>
-    <t>Source; stratifications and years available</t>
-  </si>
-  <si>
     <t>Measurement error</t>
   </si>
   <si>
@@ -271,6 +268,9 @@
       </rPr>
       <t>Weight by age: 80+ age = 0.25x weight</t>
     </r>
+  </si>
+  <si>
+    <t>Source</t>
   </si>
 </sst>
 </file>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78110196-E133-5E42-B24D-21308B0BDCAB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +703,7 @@
       <c r="E1" s="2"/>
       <c r="F1" s="2"/>
     </row>
-    <row r="2" spans="1:8" ht="34" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" ht="17" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
         <v>0</v>
       </c>
@@ -711,16 +711,16 @@
         <v>3</v>
       </c>
       <c r="C2" s="2" t="s">
+        <v>55</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="F2" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="D2" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>51</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>5</v>
       </c>
       <c r="G2" s="2" t="s">
         <v>1</v>
@@ -731,7 +731,7 @@
     </row>
     <row r="3" spans="1:8" ht="119" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="2"/>
@@ -739,256 +739,256 @@
       <c r="E3" s="2"/>
       <c r="F3" s="2"/>
       <c r="G3" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="H3" s="2"/>
     </row>
     <row r="4" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="1" t="s">
+      <c r="C4" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D4" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="1" t="s">
         <v>7</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F4" s="1" t="s">
-        <v>8</v>
       </c>
       <c r="G4" s="1">
         <v>2</v>
       </c>
       <c r="H4" s="1" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="1" t="s">
+      <c r="C5" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="D5" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F5" s="1" t="s">
         <v>10</v>
-      </c>
-      <c r="C5" s="1" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="E5" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F5" s="1" t="s">
-        <v>11</v>
       </c>
       <c r="G5" s="1">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B6" s="1" t="s">
-        <v>13</v>
-      </c>
       <c r="C6" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D6" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="s">
         <v>53</v>
       </c>
-      <c r="E6" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="G6" s="1" t="s">
-        <v>54</v>
-      </c>
       <c r="H6" s="1" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="85" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="B7" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D7" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E7" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E7" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F7" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G7" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="H7" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="B8" s="1" t="s">
-        <v>17</v>
-      </c>
       <c r="C8" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="D8" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E8" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E8" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F8" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G8" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H8" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B9" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>19</v>
-      </c>
       <c r="C9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D9" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>45</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>46</v>
-      </c>
       <c r="F9" s="1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G9" s="1" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="34" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="1" t="s">
+      <c r="C10" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D10" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="F10" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="C10" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="D10" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="E10" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="F10" s="1" t="s">
+      <c r="G10" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="G10" s="1" t="s">
+      <c r="H10" s="1" t="s">
         <v>23</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>24</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="51" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
+        <v>31</v>
+      </c>
+      <c r="B11" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="B11" s="1" t="s">
-        <v>33</v>
-      </c>
       <c r="C11" s="1" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D11" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" s="1" t="s">
         <v>48</v>
       </c>
-      <c r="E11" s="1" t="s">
-        <v>49</v>
-      </c>
       <c r="F11" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G11" s="1" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
   </sheetData>

--- a/documentation/LIKELIHOODS.xlsx
+++ b/documentation/LIKELIHOODS.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11207"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10608"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/melissaschnure/Library/CloudStorage/Dropbox/Documents_local/Hopkins/SOM_Job/3_Aging_multimorbidity/gmha/documentation/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{231AD9CE-6536-DF45-9390-4FDD231B59BC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC26A042-6435-1D4F-B6A7-8300751E54EE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7300" yWindow="1140" windowWidth="27760" windowHeight="18680" xr2:uid="{4DDDF168-95C4-EA40-8EDC-FC9C3BFB2E1F}"/>
   </bookViews>
@@ -680,8 +680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{78110196-E133-5E42-B24D-21308B0BDCAB}">
   <dimension ref="A1:H22"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+    <sheetView tabSelected="1" topLeftCell="A3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <selection activeCell="A13" sqref="A13:A22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
